--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -71,7 +71,7 @@
     <t xml:space="preserve">Include</t>
   </si>
   <si>
-    <t xml:space="preserve">Oral ,Pain</t>
+    <t xml:space="preserve">Oral Care</t>
   </si>
   <si>
     <t xml:space="preserve">Linear SOS</t>
@@ -87,7 +87,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -124,12 +124,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -194,7 +188,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -229,10 +223,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -325,21 +315,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J12" activeCellId="0" sqref="J12"/>
+      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J2:J3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.3522267206478"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.6396761133603"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.4251012145749"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.246963562753"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.4615384615385"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.4615384615385"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="26.995951417004"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.4210526315789"/>
     <col collapsed="false" hidden="false" max="1013" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="8.78542510121457"/>
   </cols>
@@ -410,7 +400,7 @@
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
-      <c r="J2" s="9" t="s">
+      <c r="J2" s="7" t="s">
         <v>14</v>
       </c>
       <c r="K2" s="7"/>
@@ -426,7 +416,7 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>15</v>
       </c>

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -62,6 +62,9 @@
     <t xml:space="preserve">Include SubCategory</t>
   </si>
   <si>
+    <t xml:space="preserve">Include POSM</t>
+  </si>
+  <si>
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
@@ -78,6 +81,21 @@
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_PLN_MSL_SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_PLN_LSOS_SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_PLN_BLOCK_SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_PLN_POSITION_SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_PLN_ECAPS_ALL</t>
   </si>
 </sst>
 </file>
@@ -87,7 +105,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -117,6 +135,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -188,7 +213,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -205,7 +230,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -308,33 +337,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="1:9"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J2:J3"/>
+      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.5384615384615"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.4210526315789"/>
-    <col collapsed="false" hidden="false" max="1013" min="12" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.7813765182186"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
+    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -368,7 +397,9 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="ALZ1" s="0"/>
+      <c r="L1" s="4" t="s">
+        <v>11</v>
+      </c>
       <c r="AMA1" s="0"/>
       <c r="AMB1" s="0"/>
       <c r="AMC1" s="0"/>
@@ -380,31 +411,31 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+    <row r="2" s="6" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K2" s="7"/>
-      <c r="ALZ2" s="0"/>
+      <c r="E2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="8"/>
+      <c r="L2" s="8"/>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
@@ -416,42 +447,68 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
+      <c r="K3" s="8"/>
+      <c r="L3" s="8"/>
+    </row>
+    <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="6"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="7"/>
-    </row>
-    <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>22</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">GSK_PLN_MSL_SCORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK_PLN_LSOS_SCORE</t>
   </si>
   <si>
     <t xml:space="preserve">GSK_PLN_BLOCK_SCORE</t>
@@ -105,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -135,13 +132,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <sz val="14"/>
@@ -213,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -230,11 +220,7 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -326,7 +312,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -337,33 +323,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:9"/>
+  <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.5384615384615"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.7085020242915"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.0647773279352"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.9595141700405"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.7449392712551"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.6356275303644"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -397,7 +383,7 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AMA1" s="0"/>
@@ -411,31 +397,31 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="6" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="8" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6"/>
+      <c r="D2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K2" s="8"/>
-      <c r="L2" s="8"/>
+      <c r="K2" s="7"/>
+      <c r="L2" s="7"/>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
@@ -451,39 +437,39 @@
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="8" t="s">
+      <c r="B3" s="6"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="7"/>
+      <c r="I3" s="7"/>
+      <c r="J3" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="8"/>
-      <c r="L3" s="8"/>
+      <c r="K3" s="7"/>
+      <c r="L3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="8" t="s">
+      <c r="B4" s="5"/>
+      <c r="C4" s="6"/>
+      <c r="D4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="8"/>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
@@ -503,11 +489,6 @@
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>21</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1" t="s">
-        <v>22</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -81,9 +81,6 @@
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK_PLN_MSL_SCORE</t>
   </si>
   <si>
     <t xml:space="preserve">GSK_PLN_BLOCK_SCORE</t>
@@ -312,7 +309,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -323,28 +320,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:8"/>
+  <dimension ref="1:7"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A6" activeCellId="0" sqref="A6"/>
+      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7813765182186"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.0647773279352"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -486,11 +483,6 @@
         <v>20</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="20">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -65,6 +65,9 @@
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
+    <t xml:space="preserve">Oral Main Shelf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Include </t>
   </si>
   <si>
@@ -74,7 +77,13 @@
     <t xml:space="preserve">Oral Care</t>
   </si>
   <si>
+    <t xml:space="preserve">Tooth paste,Denture cleanser,Denture adhesive</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linear SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclude</t>
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
@@ -87,7 +96,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -124,6 +133,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -188,7 +203,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -217,12 +232,24 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -297,7 +324,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -315,21 +342,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J2" activeCellId="0" sqref="J2:J3"/>
+      <selection pane="bottomRight" activeCell="K4" activeCellId="0" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.3522267206478"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="27.8502024291498"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="15.8542510121457"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.6396761133603"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.4615384615385"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6720647773279"/>
     <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.4210526315789"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="1013" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1014" style="0" width="8.78542510121457"/>
   </cols>
@@ -380,30 +407,34 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>11</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
-      <c r="D2" s="7" t="s">
+      <c r="C2" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="E2" s="7" t="s">
+      <c r="D2" s="8" t="s">
         <v>13</v>
       </c>
-      <c r="F2" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="E2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="7"/>
+      <c r="F2" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G2" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K2" s="10" t="s">
+        <v>16</v>
+      </c>
       <c r="ALZ2" s="0"/>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
@@ -416,42 +447,54 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B3" s="6"/>
+      <c r="C3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>18</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="E3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="K3" s="7"/>
+      <c r="K3" s="10" t="s">
+        <v>16</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="5"/>
+      <c r="C4" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" s="9"/>
+      <c r="J4" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="K4" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
-      <c r="D4" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -81,6 +81,9 @@
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Toughgrip,Polident,Poligrip</t>
   </si>
   <si>
     <t xml:space="preserve">GSK_PLN_BLOCK_SCORE</t>
@@ -99,7 +102,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -136,6 +139,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -200,7 +209,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -235,6 +244,10 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -327,21 +340,22 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="A7" activeCellId="0" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="H11" activeCellId="0" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.4939271255061"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.1740890688259"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.9595141700405"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.0688259109312"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.7813765182186"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.0647773279352"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.2793522267206"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -467,20 +481,32 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
+      <c r="H4" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
+      </c>
+      <c r="H7" s="9" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -78,6 +78,9 @@
   </si>
   <si>
     <t xml:space="preserve">Linear SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Exclude</t>
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
@@ -247,7 +250,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -322,7 +325,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -340,22 +343,22 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H11" activeCellId="0" sqref="H11"/>
+      <selection pane="bottomRight" activeCell="H18" activeCellId="0" sqref="H18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="22.9230769230769"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.0323886639676"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.7085020242915"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.2834008097166"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.1740890688259"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.2793522267206"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.995951417004"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.5303643724696"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.4939271255061"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -444,14 +447,14 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
-      <c r="D3" s="7" t="s">
-        <v>14</v>
+      <c r="D3" s="9" t="s">
+        <v>17</v>
       </c>
       <c r="E3" s="7" t="s">
         <v>14</v>
@@ -472,7 +475,7 @@
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="6"/>
@@ -482,31 +485,31 @@
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
       <c r="H4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="5" t="s">
         <v>19</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="9" t="s">
-        <v>18</v>
+        <v>21</v>
+      </c>
+      <c r="H6" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>18</v>
+        <v>22</v>
+      </c>
+      <c r="H7" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -68,6 +68,9 @@
     <t xml:space="preserve">Facings SOS</t>
   </si>
   <si>
+    <t xml:space="preserve">Oral Main Shelf</t>
+  </si>
+  <si>
     <t xml:space="preserve">Include </t>
   </si>
   <si>
@@ -77,6 +80,9 @@
     <t xml:space="preserve">Oral Care</t>
   </si>
   <si>
+    <t xml:space="preserve">Tooth paste,Denture cleanser,Denture adhesive</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linear SOS</t>
   </si>
   <si>
@@ -86,10 +92,10 @@
     <t xml:space="preserve">Availability</t>
   </si>
   <si>
+    <t xml:space="preserve">GSK_PLN_BLOCK_SCORE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Toughgrip,Polident,Poligrip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK_PLN_BLOCK_SCORE</t>
   </si>
   <si>
     <t xml:space="preserve">GSK_PLN_POSITION_SCORE</t>
@@ -250,7 +256,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -325,7 +331,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -343,22 +349,22 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H18" activeCellId="0" sqref="H18"/>
+      <selection pane="bottomRight" activeCell="H36" activeCellId="0" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.0323886639676"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.1376518218623"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.1376518218623"/>
     <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.1740890688259"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.2834008097166"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.995951417004"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.1012145748988"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.7449392712551"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.4939271255061"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.3157894736842"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.7085020242915"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -411,30 +417,34 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="5" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
         <v>12</v>
       </c>
       <c r="B2" s="6"/>
-      <c r="C2" s="6"/>
+      <c r="C2" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D2" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="7"/>
       <c r="I2" s="7"/>
       <c r="J2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K2" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="K2" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="L2" s="7"/>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
@@ -447,69 +457,78 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B3" s="6"/>
-      <c r="C3" s="6"/>
-      <c r="D3" s="9" t="s">
-        <v>17</v>
+      <c r="C3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>19</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G3" s="8" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H3" s="7"/>
       <c r="I3" s="7"/>
       <c r="J3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="K3" s="7"/>
+        <v>16</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>17</v>
+      </c>
       <c r="L3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="6"/>
+      <c r="C4" s="6" t="s">
+        <v>13</v>
+      </c>
       <c r="D4" s="7" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
-      <c r="H4" s="1" t="s">
-        <v>19</v>
+      <c r="J4" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="5" t="s">
+        <v>17</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -95,7 +95,7 @@
     <t xml:space="preserve">GSK_PLN_BLOCK_SCORE</t>
   </si>
   <si>
-    <t xml:space="preserve">Toughgrip,Polident,Poligrip</t>
+    <t xml:space="preserve">Toughgrip,Polident,Poligrip,Shumitect</t>
   </si>
   <si>
     <t xml:space="preserve">GSK_PLN_POSITION_SCORE</t>
@@ -111,7 +111,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -148,12 +148,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -218,7 +212,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -253,10 +247,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -349,22 +339,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H36" activeCellId="0" sqref="H36"/>
+      <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.1376518218623"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.2429149797571"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.1376518218623"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="16.2834008097166"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.1012145748988"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.2105263157895"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.9595141700405"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.3157894736842"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.7085020242915"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.5303643724696"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.9230769230769"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -500,7 +489,8 @@
       </c>
       <c r="F4" s="5"/>
       <c r="G4" s="8"/>
-      <c r="J4" s="9" t="s">
+      <c r="H4" s="0"/>
+      <c r="J4" s="5" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="5" t="s">

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -65,43 +65,52 @@
     <t xml:space="preserve">Include POSM</t>
   </si>
   <si>
-    <t xml:space="preserve">Facings SOS</t>
+    <t xml:space="preserve">Linear SOS</t>
   </si>
   <si>
     <t xml:space="preserve">Oral Main Shelf</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooth paste,Denture cleanser,Denture adhesive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
     <t xml:space="preserve">Include </t>
   </si>
   <si>
-    <t xml:space="preserve">Include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tooth paste,Denture cleanser,Denture adhesive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
+    <t xml:space="preserve">GSK_PLN_MSL_SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shumitect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooth paste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_PLN_LSOS_SCORE</t>
   </si>
   <si>
     <t xml:space="preserve">GSK_PLN_BLOCK_SCORE</t>
   </si>
   <si>
-    <t xml:space="preserve">Toughgrip,Polident,Poligrip,Shumitect</t>
-  </si>
-  <si>
     <t xml:space="preserve">GSK_PLN_POSITION_SCORE</t>
   </si>
   <si>
-    <t xml:space="preserve">GSK_PLN_ECAPS_ALL</t>
+    <t xml:space="preserve">GSK_ECAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Cap</t>
   </si>
 </sst>
 </file>
@@ -150,7 +159,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -161,6 +170,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -212,7 +227,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -234,10 +249,6 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -247,6 +258,22 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -283,7 +310,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -332,28 +359,28 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:7"/>
+  <dimension ref="1:8"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H7" activeCellId="0" sqref="H7"/>
+      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.2429149797571"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.3522267206478"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.2105263157895"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="21.9595141700405"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.7449392712551"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.4939271255061"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="21.5303643724696"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="28.9230769230769"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.5668016194332"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -406,35 +433,34 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="5" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="5" t="s">
+    <row r="2" s="8" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="6"/>
-      <c r="C2" s="6" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="7" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7"/>
-      <c r="J2" s="7" t="s">
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="7" t="s">
+      <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="7"/>
+      <c r="L2" s="6"/>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
@@ -446,79 +472,150 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="6"/>
-      <c r="C3" s="6" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3" s="7"/>
-      <c r="I3" s="7"/>
-      <c r="J3" s="7" t="s">
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="8"/>
+      <c r="J3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="7"/>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="5"/>
-      <c r="C4" s="6" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="7" t="s">
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="5"/>
-      <c r="G4" s="8"/>
-      <c r="H4" s="0"/>
-      <c r="J4" s="5" t="s">
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="5" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H5" s="5" t="s">
+      <c r="K5" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="H6" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="8" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="8" t="s">
         <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="8" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -65,52 +65,31 @@
     <t xml:space="preserve">Include POSM</t>
   </si>
   <si>
+    <t xml:space="preserve">Facings SOS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Main Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooth paste,Denture cleanser,Denture adhesive</t>
+  </si>
+  <si>
     <t xml:space="preserve">Linear SOS</t>
   </si>
   <si>
-    <t xml:space="preserve">Oral Main Shelf</t>
-  </si>
-  <si>
     <t xml:space="preserve">Exclude</t>
   </si>
   <si>
-    <t xml:space="preserve">Include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tooth paste,Denture cleanser,Denture adhesive</t>
-  </si>
-  <si>
     <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include </t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK_PLN_MSL_SCORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Shumitect</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tooth paste</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK_PLN_LSOS_SCORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK_PLN_BLOCK_SCORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK_PLN_POSITION_SCORE</t>
-  </si>
-  <si>
-    <t xml:space="preserve">GSK_ECAPS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">End Cap</t>
   </si>
 </sst>
 </file>
@@ -120,7 +99,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -152,6 +131,13 @@
       <charset val="1"/>
     </font>
     <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -159,7 +145,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -170,12 +156,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF993366"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFDDDDDD"/>
-        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -227,7 +207,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="10">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -244,7 +224,15 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -258,22 +246,6 @@
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -310,7 +282,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFDDDDDD"/>
+      <rgbColor rgb="FFCCCCFF"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -348,7 +320,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -359,33 +331,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:8"/>
+  <dimension ref="1:4"/>
   <sheetViews>
     <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="E7" activeCellId="0" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="L9" activeCellId="0" sqref="L9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="13.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5668016194332"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="29.9919028340081"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.2793522267206"/>
+    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0688259109312"/>
+    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="21.7449392712551"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.5668016194332"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6720647773279"/>
+    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.8866396761134"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.8502024291498"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -419,7 +391,7 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="3" t="s">
+      <c r="L1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="AMA1" s="0"/>
@@ -433,34 +405,35 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="8" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="1" t="s">
+    <row r="2" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
+      <c r="B2" s="7"/>
+      <c r="C2" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="D2" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="E2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="F2" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="G2" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
+      <c r="H2" s="8"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="K2" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="8"/>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
@@ -472,151 +445,56 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5" t="s">
+      <c r="B3" s="7"/>
+      <c r="C3" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="8" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="E3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="G3" s="9" t="s">
+        <v>15</v>
+      </c>
       <c r="H3" s="8"/>
+      <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="L3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="6"/>
+      <c r="C4" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="8" t="s">
+      <c r="D4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F4" s="6"/>
+      <c r="G4" s="9"/>
+      <c r="J4" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>19</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="8"/>
-      <c r="J8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="8" t="s">
+      <c r="K4" s="6" t="s">
         <v>17</v>
       </c>
+      <c r="L4" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -65,31 +65,52 @@
     <t xml:space="preserve">Include POSM</t>
   </si>
   <si>
-    <t xml:space="preserve">Facings SOS</t>
+    <t xml:space="preserve">Linear SOS</t>
   </si>
   <si>
     <t xml:space="preserve">Oral Main Shelf</t>
   </si>
   <si>
+    <t xml:space="preserve">Exclude</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Include</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Care</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooth paste,Denture cleanser,Denture adhesive</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Availability</t>
+  </si>
+  <si>
     <t xml:space="preserve">Include </t>
   </si>
   <si>
-    <t xml:space="preserve">Include</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Oral Care</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Tooth paste,Denture cleanser,Denture adhesive</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Linear SOS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Exclude</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Availability</t>
+    <t xml:space="preserve">GSK_PLN_MSL_SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Shumitect</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooth paste</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_PLN_LSOS_SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_PLN_BLOCK_SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_PLN_POSITION_SCORE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">GSK_ECAPS</t>
+  </si>
+  <si>
+    <t xml:space="preserve">End Cap</t>
   </si>
 </sst>
 </file>
@@ -99,7 +120,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -131,13 +152,6 @@
       <charset val="1"/>
     </font>
     <font>
-      <b val="true"/>
-      <sz val="14"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <sz val="14"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
@@ -145,7 +159,7 @@
       <charset val="1"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +170,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="FF7030A0"/>
         <bgColor rgb="FF993366"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFDDDDDD"/>
+        <bgColor rgb="FFCCFFCC"/>
       </patternFill>
     </fill>
   </fills>
@@ -207,7 +227,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -224,28 +244,36 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
   </cellXfs>
@@ -282,7 +310,7 @@
       <rgbColor rgb="FF660066"/>
       <rgbColor rgb="FFFF8080"/>
       <rgbColor rgb="FF0066CC"/>
-      <rgbColor rgb="FFCCCCFF"/>
+      <rgbColor rgb="FFDDDDDD"/>
       <rgbColor rgb="FF000080"/>
       <rgbColor rgb="FFFF00FF"/>
       <rgbColor rgb="FFFFFF00"/>
@@ -320,7 +348,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -331,33 +359,33 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:4"/>
+  <dimension ref="1:8"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="70" zoomScaleNormal="70" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L9" activeCellId="0" sqref="L9"/>
+      <selection pane="bottomRight" activeCell="K5" activeCellId="0" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="20.5668016194332"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="28.2793522267206"/>
-    <col collapsed="false" hidden="false" max="4" min="4" style="1" width="16.0688259109312"/>
-    <col collapsed="false" hidden="false" max="5" min="5" style="1" width="15.8542510121457"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="20.6720647773279"/>
-    <col collapsed="false" hidden="false" max="9" min="8" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="20.8866396761134"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="27.8502024291498"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.1740890688259"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.9919028340081"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
   <sheetData>
-    <row r="1" s="5" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="4" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -391,7 +419,7 @@
       <c r="K1" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="4" t="s">
+      <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
       <c r="AMA1" s="0"/>
@@ -405,35 +433,34 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="6" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="6" t="s">
+    <row r="2" s="8" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7" t="s">
+      <c r="B2" s="5"/>
+      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2" s="8"/>
-      <c r="I2" s="8"/>
-      <c r="J2" s="8" t="s">
+      <c r="E2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="K2" s="8" t="s">
+      <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="8"/>
+      <c r="L2" s="6"/>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
@@ -445,56 +472,154 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7" t="s">
+      <c r="B3" s="8"/>
+      <c r="C3" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="8" t="s">
+      <c r="D3" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>15</v>
-      </c>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
       <c r="J3" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="8"/>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="6" t="s">
+      <c r="A4" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="B4" s="6"/>
-      <c r="C4" s="7" t="s">
+      <c r="B4" s="8"/>
+      <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
+      <c r="H4" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J4" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K4" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D5" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="F4" s="6"/>
-      <c r="G4" s="9"/>
-      <c r="J4" s="6" t="s">
+      <c r="E5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="H5" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J5" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="K4" s="6" t="s">
+      <c r="K5" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J6" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K6" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>13</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="J7" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="8"/>
+      <c r="J8" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L4" s="6"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -84,9 +84,6 @@
   </si>
   <si>
     <t xml:space="preserve">Availability</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Include </t>
   </si>
   <si>
     <t xml:space="preserve">GSK_PLN_MSL_SCORE</t>
@@ -366,21 +363,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="K5" activeCellId="0" sqref="K5"/>
+      <selection pane="bottomRight" activeCell="H12" activeCellId="0" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="23.8866396761134"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.4210526315789"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.6356275303644"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.1740890688259"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.3886639676113"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.8178137651822"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="29.9919028340081"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.6032388663968"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -433,7 +430,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="8" customFormat="true" ht="26.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="8" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -472,7 +469,7 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -481,7 +478,7 @@
         <v>13</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E3" s="9"/>
       <c r="F3" s="9"/>
@@ -496,31 +493,31 @@
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E4" s="9"/>
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="5" t="s">
@@ -539,18 +536,18 @@
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -568,47 +565,47 @@
         <v>14</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>13</v>
       </c>
       <c r="D7" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="1" t="s">
-        <v>27</v>
-      </c>
       <c r="D8" s="6" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="E8" s="11"/>
       <c r="F8" s="11"/>

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -14,7 +14,7 @@
     <externalReference r:id="rId3"/>
   </externalReferences>
   <definedNames>
-    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[2]Set_up!$A$90:$A$124</definedName>
+    <definedName function="false" hidden="false" name="Validation_List" vbProcedure="false">[1]Set_up!$A$90:$A$124</definedName>
     <definedName function="false" hidden="false" localSheetId="0" name="_xlnm._FilterDatabase" vbProcedure="false">'Functional KPIs'!$A$1:$J$4</definedName>
   </definedNames>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -117,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,6 +154,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -224,7 +230,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -261,12 +267,20 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -345,7 +359,7 @@
 </styleSheet>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </externalLink>
@@ -363,21 +377,21 @@
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="H12" activeCellId="0" sqref="H12"/>
+      <selection pane="bottomRight" activeCell="L12" activeCellId="0" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.8"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.1012145748988"/>
+    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
     <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.6356275303644"/>
+    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.8502024291498"/>
     <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
     <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.3886639676113"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.8178137651822"/>
+    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.4939271255061"/>
+    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.9230769230769"/>
     <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.6032388663968"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.2064777327935"/>
+    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.7085020242915"/>
+    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
     <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
     <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
   </cols>
@@ -430,7 +444,7 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="8" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="8" customFormat="true" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>12</v>
       </c>
@@ -457,7 +471,9 @@
       <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6"/>
+      <c r="L2" s="9" t="s">
+        <v>14</v>
+      </c>
       <c r="AMA2" s="0"/>
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
@@ -469,7 +485,7 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
@@ -480,9 +496,9 @@
       <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
       <c r="H3" s="8"/>
       <c r="J3" s="8" t="s">
         <v>16</v>
@@ -490,6 +506,9 @@
       <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
+      <c r="L3" s="12" t="s">
+        <v>14</v>
+      </c>
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
@@ -502,9 +521,9 @@
       <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
       <c r="H4" s="8" t="s">
         <v>20</v>
       </c>
@@ -514,8 +533,11 @@
       <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L4" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
         <v>22</v>
       </c>
@@ -544,8 +566,11 @@
       <c r="K5" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L5" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
         <v>23</v>
       </c>
@@ -573,8 +598,11 @@
       <c r="K6" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L6" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
         <v>24</v>
       </c>
@@ -584,9 +612,9 @@
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="G7" s="13"/>
       <c r="H7" s="8" t="s">
         <v>20</v>
       </c>
@@ -596,8 +624,11 @@
       <c r="K7" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="L7" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
         <v>25</v>
       </c>
@@ -607,15 +638,18 @@
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
       <c r="H8" s="8"/>
       <c r="J8" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K8" s="8" t="s">
         <v>17</v>
+      </c>
+      <c r="L8" s="12" t="s">
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="992" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Functional KPIs" sheetId="1" state="visible" r:id="rId2"/>
@@ -107,7 +107,7 @@
     <t xml:space="preserve">GSK_ECAPS</t>
   </si>
   <si>
-    <t xml:space="preserve">End Cap</t>
+    <t xml:space="preserve">End Cap, Oral End Cap</t>
   </si>
 </sst>
 </file>
@@ -117,7 +117,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -154,12 +154,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -230,7 +224,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -267,20 +261,12 @@
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -370,30 +356,30 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="1:8"/>
+  <dimension ref="A1:AMJ8"/>
   <sheetViews>
-    <sheetView windowProtection="true" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
       <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L12" activeCellId="0" sqref="L12"/>
+      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8"/>
+  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" hidden="false" max="1" min="1" style="1" width="24.3157894736842"/>
-    <col collapsed="false" hidden="false" max="2" min="2" style="1" width="10.3886639676113"/>
-    <col collapsed="false" hidden="false" max="3" min="3" style="1" width="30.8502024291498"/>
-    <col collapsed="false" hidden="false" max="5" min="4" style="1" width="16.3886639676113"/>
-    <col collapsed="false" hidden="false" max="6" min="6" style="1" width="13.9271255060729"/>
-    <col collapsed="false" hidden="false" max="7" min="7" style="1" width="22.4939271255061"/>
-    <col collapsed="false" hidden="false" max="8" min="8" style="1" width="22.9230769230769"/>
-    <col collapsed="false" hidden="false" max="9" min="9" style="1" width="11.0323886639676"/>
-    <col collapsed="false" hidden="false" max="10" min="10" style="1" width="22.7085020242915"/>
-    <col collapsed="false" hidden="false" max="11" min="11" style="1" width="30.4210526315789"/>
-    <col collapsed="false" hidden="false" max="1014" min="12" style="1" width="8.78542510121457"/>
-    <col collapsed="false" hidden="false" max="1025" min="1015" style="0" width="8.78542510121457"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="16.39"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.93"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.49"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.91"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.02"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="30.42"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="12" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="8.79"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -471,7 +457,7 @@
       <c r="K2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="9" t="s">
+      <c r="L2" s="6" t="s">
         <v>14</v>
       </c>
       <c r="AMA2" s="0"/>
@@ -496,9 +482,9 @@
       <c r="D3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="10"/>
-      <c r="F3" s="10"/>
-      <c r="G3" s="11"/>
+      <c r="E3" s="9"/>
+      <c r="F3" s="9"/>
+      <c r="G3" s="10"/>
       <c r="H3" s="8"/>
       <c r="J3" s="8" t="s">
         <v>16</v>
@@ -506,7 +492,7 @@
       <c r="K3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="L3" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -521,9 +507,9 @@
       <c r="D4" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="11"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="10"/>
       <c r="H4" s="8" t="s">
         <v>20</v>
       </c>
@@ -533,7 +519,7 @@
       <c r="K4" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L4" s="12" t="s">
+      <c r="L4" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -566,7 +552,7 @@
       <c r="K5" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="12" t="s">
+      <c r="L5" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -598,7 +584,7 @@
       <c r="K6" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L6" s="12" t="s">
+      <c r="L6" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -612,9 +598,9 @@
       <c r="D7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E7" s="13"/>
-      <c r="F7" s="13"/>
-      <c r="G7" s="13"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
       <c r="H7" s="8" t="s">
         <v>20</v>
       </c>
@@ -624,7 +610,7 @@
       <c r="K7" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="L7" s="12" t="s">
+      <c r="L7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
@@ -638,9 +624,9 @@
       <c r="D8" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="E8" s="13"/>
-      <c r="F8" s="13"/>
-      <c r="G8" s="13"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="8"/>
       <c r="J8" s="8" t="s">
         <v>16</v>
@@ -648,14 +634,14 @@
       <c r="K8" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="L8" s="12" t="s">
+      <c r="L8" s="8" t="s">
         <v>14</v>
       </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" usePrinterDefaults="false" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="1" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -86,6 +86,15 @@
     <t xml:space="preserve">Availability</t>
   </si>
   <si>
+    <t xml:space="preserve">Oral Main Shelf, CCA Main Shelf, Pain Relief Main Shelf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oral Care, Respiratory and Skin Health, Pain relief</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tooth paste,Denture cleanser,Denture adhesive, Allergy, Cold &amp; Flu, Pain Relief</t>
+  </si>
+  <si>
     <t xml:space="preserve">GSK_PLN_MSL_SCORE</t>
   </si>
   <si>
@@ -107,7 +116,10 @@
     <t xml:space="preserve">GSK_ECAPS</t>
   </si>
   <si>
-    <t xml:space="preserve">End Cap, Oral End Cap</t>
+    <t xml:space="preserve">End Cap</t>
+  </si>
+  <si>
+    <t xml:space="preserve">POSM</t>
   </si>
 </sst>
 </file>
@@ -356,12 +368,12 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:AMJ8"/>
+  <dimension ref="A1:AMJ9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="85" zoomScaleNormal="85" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="H2" activePane="bottomRight" state="frozen"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
+      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="H1" activeCellId="0" sqref="H1"/>
+      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
       <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
     </sheetView>
@@ -370,13 +382,13 @@
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="30.85"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="49.71"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="4" style="1" width="16.39"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="1" width="13.93"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="22.49"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="1" width="22.91"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.02"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="22.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="43.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="30.42"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="12" style="1" width="8.79"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="8.79"/>
@@ -471,13 +483,13 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="8" t="s">
         <v>18</v>
       </c>
       <c r="B3" s="8"/>
       <c r="C3" s="5" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>15</v>
@@ -487,10 +499,10 @@
       <c r="G3" s="10"/>
       <c r="H3" s="8"/>
       <c r="J3" s="8" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="K3" s="8" t="s">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="L3" s="8" t="s">
         <v>14</v>
@@ -498,7 +510,7 @@
     </row>
     <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="8" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B4" s="8"/>
       <c r="C4" s="5" t="s">
@@ -511,13 +523,13 @@
       <c r="F4" s="9"/>
       <c r="G4" s="10"/>
       <c r="H4" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J4" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L4" s="8" t="s">
         <v>14</v>
@@ -525,7 +537,7 @@
     </row>
     <row r="5" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B5" s="8"/>
       <c r="C5" s="5" t="s">
@@ -544,13 +556,13 @@
         <v>15</v>
       </c>
       <c r="H5" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J5" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K5" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L5" s="8" t="s">
         <v>14</v>
@@ -558,7 +570,7 @@
     </row>
     <row r="6" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="C6" s="5" t="s">
         <v>13</v>
@@ -576,13 +588,13 @@
         <v>14</v>
       </c>
       <c r="H6" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J6" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K6" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L6" s="8" t="s">
         <v>14</v>
@@ -590,7 +602,7 @@
     </row>
     <row r="7" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="C7" s="5" t="s">
         <v>13</v>
@@ -602,24 +614,24 @@
       <c r="F7" s="11"/>
       <c r="G7" s="11"/>
       <c r="H7" s="8" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="J7" s="8" t="s">
         <v>16</v>
       </c>
       <c r="K7" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="L7" s="8" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>29</v>
       </c>
       <c r="D8" s="6" t="s">
         <v>15</v>
@@ -636,6 +648,14 @@
       </c>
       <c r="L8" s="8" t="s">
         <v>14</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Projects/GSKJP/Data/gsk_set_up.xlsx
+++ b/Projects/GSKJP/Data/gsk_set_up.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="32">
   <si>
     <t xml:space="preserve">KPI Type</t>
   </si>
@@ -63,6 +63,9 @@
   </si>
   <si>
     <t xml:space="preserve">Include POSM</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Location type</t>
   </si>
   <si>
     <t xml:space="preserve">Linear SOS</t>
@@ -129,7 +132,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -158,6 +161,14 @@
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b val="true"/>
+      <sz val="14"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibre"/>
+      <family val="0"/>
       <charset val="1"/>
     </font>
     <font>
@@ -236,7 +247,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -253,7 +264,11 @@
       <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="center" vertical="top" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="top" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -287,12 +302,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -371,14 +386,14 @@
   <dimension ref="A1:AMJ9"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="4" ySplit="1" topLeftCell="L2" activePane="bottomRight" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="E1" activeCellId="0" sqref="E1"/>
+      <selection pane="topRight" activeCell="L1" activeCellId="0" sqref="L1"/>
       <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C8" activeCellId="0" sqref="C8"/>
+      <selection pane="bottomRight" activeCell="M1" activeCellId="0" sqref="M1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.79296875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="24.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="10.39"/>
@@ -390,11 +405,12 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="11.02"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="1" width="43.7"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="1" width="30.42"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1014" min="12" style="1" width="8.79"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1015" style="0" width="8.79"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="12" min="12" style="1" width="8.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="1" width="15.03"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1015" min="14" style="1" width="8.79"/>
   </cols>
   <sheetData>
-    <row r="1" s="4" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="5" customFormat="true" ht="46" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -431,7 +447,9 @@
       <c r="L1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="AMA1" s="0"/>
+      <c r="M1" s="4" t="s">
+        <v>12</v>
+      </c>
       <c r="AMB1" s="0"/>
       <c r="AMC1" s="0"/>
       <c r="AMD1" s="0"/>
@@ -442,37 +460,37 @@
       <c r="AMI1" s="0"/>
       <c r="AMJ1" s="0"/>
     </row>
-    <row r="2" s="8" customFormat="true" ht="29.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="2" s="9" customFormat="true" ht="28.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="B2" s="6"/>
+      <c r="C2" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F2" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G2" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" s="6" t="s">
+      <c r="D2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" s="7"/>
+      <c r="J2" s="7" t="s">
         <v>17</v>
       </c>
-      <c r="L2" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="AMA2" s="0"/>
+      <c r="K2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="L2" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="M2" s="7"/>
       <c r="AMB2" s="0"/>
       <c r="AMC2" s="0"/>
       <c r="AMD2" s="0"/>
@@ -483,179 +501,185 @@
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
-    <row r="3" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="8" t="s">
+    <row r="3" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3" s="9"/>
+      <c r="C3" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="9"/>
+      <c r="J3" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="K3" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="L3" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M3" s="9"/>
+    </row>
+    <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="9"/>
+      <c r="C4" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D4" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" s="10"/>
+      <c r="F4" s="10"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K4" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L4" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M4" s="9"/>
+    </row>
+    <row r="5" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" s="9"/>
+      <c r="C5" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G5" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="H5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M5" s="9"/>
+    </row>
+    <row r="6" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="G6" s="0" t="s">
+        <v>15</v>
+      </c>
+      <c r="H6" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J6" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K6" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L6" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M6" s="9"/>
+    </row>
+    <row r="7" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C7" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E7" s="12"/>
+      <c r="F7" s="12"/>
+      <c r="G7" s="12"/>
+      <c r="H7" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="J7" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K7" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="L7" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M7" s="9"/>
+    </row>
+    <row r="8" customFormat="false" ht="14.9" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C8" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="E8" s="12"/>
+      <c r="F8" s="12"/>
+      <c r="G8" s="12"/>
+      <c r="H8" s="9"/>
+      <c r="J8" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="K8" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B3" s="8"/>
-      <c r="C3" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" s="9"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="10"/>
-      <c r="H3" s="8"/>
-      <c r="J3" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="K3" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="L3" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="8"/>
-      <c r="C4" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J4" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K4" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B5" s="8"/>
-      <c r="C5" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D5" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C6" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="G6" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="H6" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J6" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K6" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L6" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="14.1" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="5" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E7" s="11"/>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="J7" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="L7" s="8" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="14.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="5" t="s">
-        <v>29</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>15</v>
-      </c>
-      <c r="E8" s="11"/>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="8"/>
-      <c r="J8" s="8" t="s">
-        <v>16</v>
-      </c>
-      <c r="K8" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L8" s="8" t="s">
-        <v>14</v>
-      </c>
+      <c r="L8" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="M8" s="9"/>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>19</v>
+        <v>31</v>
+      </c>
+      <c r="C9" s="6" t="s">
+        <v>20</v>
       </c>
     </row>
   </sheetData>
